--- a/otr_other/正規表現まとめ.xlsx
+++ b/otr_other/正規表現まとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_io\otr_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D09A5F-B1D4-472D-9BF9-508C1B484FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DC95D9-DEBC-4E52-8A54-EB65FFB98B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{AB835E2F-9EAF-4BBA-9CDB-A4E71C3D7AEA}"/>
   </bookViews>
@@ -1032,7 +1032,7 @@
   <dimension ref="A2:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E27" sqref="E27:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
